--- a/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/公安机关受理治安案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/公安机关受理治安案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1051 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16759</v>
+        <v>16057</v>
       </c>
       <c r="C2" t="n">
-        <v>1635401</v>
+        <v>3951974</v>
       </c>
       <c r="D2" t="n">
-        <v>105724</v>
+        <v>103215</v>
       </c>
       <c r="E2" t="n">
-        <v>127064</v>
+        <v>142963</v>
       </c>
       <c r="F2" t="n">
-        <v>329100</v>
+        <v>391646</v>
       </c>
       <c r="G2" t="n">
-        <v>99099</v>
+        <v>145463</v>
       </c>
       <c r="H2" t="n">
-        <v>65060</v>
+        <v>48736</v>
       </c>
       <c r="I2" t="n">
-        <v>81325</v>
+        <v>237471</v>
       </c>
       <c r="J2" t="n">
-        <v>49012</v>
+        <v>29905</v>
       </c>
       <c r="K2" t="n">
-        <v>1851419</v>
+        <v>4258427</v>
       </c>
       <c r="L2" t="n">
-        <v>249468</v>
+        <v>357195</v>
       </c>
       <c r="M2" t="n">
-        <v>7197200</v>
+        <v>12757660</v>
       </c>
       <c r="N2" t="n">
-        <v>47246</v>
+        <v>19410</v>
       </c>
       <c r="O2" t="n">
-        <v>1763377</v>
+        <v>1994257</v>
       </c>
       <c r="P2" t="n">
-        <v>127884</v>
+        <v>170325</v>
       </c>
       <c r="Q2" t="n">
-        <v>366878</v>
+        <v>387217</v>
       </c>
       <c r="R2" t="n">
-        <v>25608</v>
+        <v>27845</v>
       </c>
       <c r="S2" t="n">
-        <v>81439</v>
+        <v>182983</v>
       </c>
       <c r="T2" t="n">
-        <v>66561</v>
+        <v>175252</v>
       </c>
       <c r="U2" t="n">
-        <v>44129</v>
+        <v>33171</v>
       </c>
       <c r="V2" t="n">
-        <v>64647</v>
+        <v>84148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24020</v>
+        <v>18441</v>
       </c>
       <c r="C3" t="n">
-        <v>1993372</v>
+        <v>3988499</v>
       </c>
       <c r="D3" t="n">
-        <v>95338</v>
+        <v>96162</v>
       </c>
       <c r="E3" t="n">
-        <v>159447</v>
+        <v>123708</v>
       </c>
       <c r="F3" t="n">
-        <v>446846</v>
+        <v>478102</v>
       </c>
       <c r="G3" t="n">
-        <v>90405</v>
+        <v>151437</v>
       </c>
       <c r="H3" t="n">
-        <v>57472</v>
+        <v>46685</v>
       </c>
       <c r="I3" t="n">
-        <v>123609</v>
+        <v>278482</v>
       </c>
       <c r="J3" t="n">
-        <v>45425</v>
+        <v>22734</v>
       </c>
       <c r="K3" t="n">
-        <v>2544082</v>
+        <v>4416863</v>
       </c>
       <c r="L3" t="n">
-        <v>267790</v>
+        <v>365252</v>
       </c>
       <c r="M3" t="n">
-        <v>8709398</v>
+        <v>13165583</v>
       </c>
       <c r="N3" t="n">
-        <v>43810</v>
+        <v>17828</v>
       </c>
       <c r="O3" t="n">
-        <v>2025560</v>
+        <v>2081986</v>
       </c>
       <c r="P3" t="n">
-        <v>136864</v>
+        <v>204572</v>
       </c>
       <c r="Q3" t="n">
-        <v>343769</v>
+        <v>367442</v>
       </c>
       <c r="R3" t="n">
-        <v>21617</v>
+        <v>24605</v>
       </c>
       <c r="S3" t="n">
-        <v>112065</v>
+        <v>226765</v>
       </c>
       <c r="T3" t="n">
-        <v>69343</v>
+        <v>151077</v>
       </c>
       <c r="U3" t="n">
-        <v>45030</v>
+        <v>31521</v>
       </c>
       <c r="V3" t="n">
-        <v>63534</v>
+        <v>73422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20404</v>
+        <v>12774</v>
       </c>
       <c r="C4" t="n">
-        <v>2301827</v>
+        <v>4418624</v>
       </c>
       <c r="D4" t="n">
-        <v>87525</v>
+        <v>94938</v>
       </c>
       <c r="E4" t="n">
-        <v>155146</v>
+        <v>115527</v>
       </c>
       <c r="F4" t="n">
-        <v>449972</v>
+        <v>476836</v>
       </c>
       <c r="G4" t="n">
-        <v>101985</v>
+        <v>138416</v>
       </c>
       <c r="H4" t="n">
-        <v>51837</v>
+        <v>37479</v>
       </c>
       <c r="I4" t="n">
-        <v>150516</v>
+        <v>306328</v>
       </c>
       <c r="J4" t="n">
-        <v>38024</v>
+        <v>19207</v>
       </c>
       <c r="K4" t="n">
-        <v>2917872</v>
+        <v>4531863</v>
       </c>
       <c r="L4" t="n">
-        <v>270216</v>
+        <v>445180</v>
       </c>
       <c r="M4" t="n">
-        <v>9411956</v>
+        <v>13889480</v>
       </c>
       <c r="N4" t="n">
-        <v>27359</v>
+        <v>14705</v>
       </c>
       <c r="O4" t="n">
-        <v>2022238</v>
+        <v>2052861</v>
       </c>
       <c r="P4" t="n">
-        <v>138445</v>
+        <v>270114</v>
       </c>
       <c r="Q4" t="n">
-        <v>344218</v>
+        <v>408919</v>
       </c>
       <c r="R4" t="n">
-        <v>19301</v>
+        <v>28083</v>
       </c>
       <c r="S4" t="n">
-        <v>109055</v>
+        <v>236698</v>
       </c>
       <c r="T4" t="n">
-        <v>98331</v>
+        <v>163429</v>
       </c>
       <c r="U4" t="n">
-        <v>42874</v>
+        <v>38792</v>
       </c>
       <c r="V4" t="n">
-        <v>64811</v>
+        <v>78707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20065</v>
+        <v>7174</v>
       </c>
       <c r="C5" t="n">
-        <v>3169115</v>
+        <v>4183815</v>
       </c>
       <c r="D5" t="n">
-        <v>126140</v>
+        <v>84375</v>
       </c>
       <c r="E5" t="n">
-        <v>164377</v>
+        <v>90037</v>
       </c>
       <c r="F5" t="n">
-        <v>417580</v>
+        <v>464682</v>
       </c>
       <c r="G5" t="n">
-        <v>134120</v>
+        <v>130652</v>
       </c>
       <c r="H5" t="n">
-        <v>52876</v>
+        <v>30111</v>
       </c>
       <c r="I5" t="n">
-        <v>208051</v>
+        <v>294449</v>
       </c>
       <c r="J5" t="n">
-        <v>38654</v>
+        <v>16079</v>
       </c>
       <c r="K5" t="n">
-        <v>3791080</v>
+        <v>4119105</v>
       </c>
       <c r="L5" t="n">
-        <v>346907</v>
+        <v>540306</v>
       </c>
       <c r="M5" t="n">
-        <v>11752475</v>
+        <v>13307501</v>
       </c>
       <c r="N5" t="n">
-        <v>26008</v>
+        <v>12573</v>
       </c>
       <c r="O5" t="n">
-        <v>2030135</v>
+        <v>2161720</v>
       </c>
       <c r="P5" t="n">
-        <v>165975</v>
+        <v>317701</v>
       </c>
       <c r="Q5" t="n">
-        <v>641991</v>
+        <v>393829</v>
       </c>
       <c r="R5" t="n">
-        <v>18839</v>
+        <v>19579</v>
       </c>
       <c r="S5" t="n">
-        <v>153017</v>
+        <v>208415</v>
       </c>
       <c r="T5" t="n">
-        <v>144905</v>
+        <v>135868</v>
       </c>
       <c r="U5" t="n">
-        <v>36012</v>
+        <v>33229</v>
       </c>
       <c r="V5" t="n">
-        <v>66628</v>
+        <v>63802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16057</v>
+        <v>6377</v>
       </c>
       <c r="C6" t="n">
-        <v>3951974</v>
+        <v>3503053</v>
       </c>
       <c r="D6" t="n">
-        <v>103215</v>
+        <v>86729</v>
       </c>
       <c r="E6" t="n">
-        <v>142963</v>
+        <v>80768</v>
       </c>
       <c r="F6" t="n">
-        <v>391646</v>
+        <v>424549</v>
       </c>
       <c r="G6" t="n">
-        <v>145463</v>
+        <v>110179</v>
       </c>
       <c r="H6" t="n">
-        <v>48736</v>
+        <v>30404</v>
       </c>
       <c r="I6" t="n">
-        <v>237471</v>
+        <v>229277</v>
       </c>
       <c r="J6" t="n">
-        <v>29905</v>
+        <v>14028</v>
       </c>
       <c r="K6" t="n">
-        <v>4258427</v>
+        <v>3283733</v>
       </c>
       <c r="L6" t="n">
-        <v>357195</v>
+        <v>658908</v>
       </c>
       <c r="M6" t="n">
-        <v>12757660</v>
+        <v>11878456</v>
       </c>
       <c r="N6" t="n">
-        <v>19410</v>
+        <v>12617</v>
       </c>
       <c r="O6" t="n">
-        <v>1994257</v>
+        <v>2326509</v>
       </c>
       <c r="P6" t="n">
-        <v>170325</v>
+        <v>398982</v>
       </c>
       <c r="Q6" t="n">
-        <v>387217</v>
+        <v>367458</v>
       </c>
       <c r="R6" t="n">
-        <v>27845</v>
+        <v>21205</v>
       </c>
       <c r="S6" t="n">
-        <v>182983</v>
+        <v>123063</v>
       </c>
       <c r="T6" t="n">
-        <v>175252</v>
+        <v>116292</v>
       </c>
       <c r="U6" t="n">
-        <v>33171</v>
+        <v>31361</v>
       </c>
       <c r="V6" t="n">
-        <v>84148</v>
+        <v>52964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18441</v>
+        <v>5978</v>
       </c>
       <c r="C7" t="n">
-        <v>3988499</v>
+        <v>3476718</v>
       </c>
       <c r="D7" t="n">
-        <v>96162</v>
+        <v>75756</v>
       </c>
       <c r="E7" t="n">
-        <v>123708</v>
+        <v>74955</v>
       </c>
       <c r="F7" t="n">
-        <v>478102</v>
+        <v>452474</v>
       </c>
       <c r="G7" t="n">
-        <v>151437</v>
+        <v>93326</v>
       </c>
       <c r="H7" t="n">
-        <v>46685</v>
+        <v>29691</v>
       </c>
       <c r="I7" t="n">
-        <v>278482</v>
+        <v>216716</v>
       </c>
       <c r="J7" t="n">
-        <v>22734</v>
+        <v>13085</v>
       </c>
       <c r="K7" t="n">
-        <v>4416863</v>
+        <v>3001840</v>
       </c>
       <c r="L7" t="n">
-        <v>365252</v>
+        <v>798695</v>
       </c>
       <c r="M7" t="n">
-        <v>13165583</v>
+        <v>11795124</v>
       </c>
       <c r="N7" t="n">
-        <v>17828</v>
+        <v>11561</v>
       </c>
       <c r="O7" t="n">
-        <v>2081986</v>
+        <v>2343731</v>
       </c>
       <c r="P7" t="n">
-        <v>204572</v>
+        <v>510505</v>
       </c>
       <c r="Q7" t="n">
-        <v>367442</v>
+        <v>323386</v>
       </c>
       <c r="R7" t="n">
-        <v>24605</v>
+        <v>24766</v>
       </c>
       <c r="S7" t="n">
-        <v>226765</v>
+        <v>124600</v>
       </c>
       <c r="T7" t="n">
-        <v>151077</v>
+        <v>102894</v>
       </c>
       <c r="U7" t="n">
-        <v>31521</v>
+        <v>32779</v>
       </c>
       <c r="V7" t="n">
-        <v>73422</v>
+        <v>81668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12774</v>
+        <v>4124</v>
       </c>
       <c r="C8" t="n">
-        <v>4418624</v>
+        <v>3455632</v>
       </c>
       <c r="D8" t="n">
-        <v>94938</v>
+        <v>82877</v>
       </c>
       <c r="E8" t="n">
-        <v>115527</v>
+        <v>77451</v>
       </c>
       <c r="F8" t="n">
-        <v>476836</v>
+        <v>481862</v>
       </c>
       <c r="G8" t="n">
-        <v>138416</v>
+        <v>78316</v>
       </c>
       <c r="H8" t="n">
-        <v>37479</v>
+        <v>23508</v>
       </c>
       <c r="I8" t="n">
-        <v>306328</v>
+        <v>220193</v>
       </c>
       <c r="J8" t="n">
-        <v>19207</v>
+        <v>11707</v>
       </c>
       <c r="K8" t="n">
-        <v>4531863</v>
+        <v>2803995</v>
       </c>
       <c r="L8" t="n">
-        <v>445180</v>
+        <v>773313</v>
       </c>
       <c r="M8" t="n">
-        <v>13889480</v>
+        <v>11517195</v>
       </c>
       <c r="N8" t="n">
-        <v>14705</v>
+        <v>11856</v>
       </c>
       <c r="O8" t="n">
-        <v>2052861</v>
+        <v>2285424</v>
       </c>
       <c r="P8" t="n">
-        <v>270114</v>
+        <v>470129</v>
       </c>
       <c r="Q8" t="n">
-        <v>408919</v>
+        <v>306094</v>
       </c>
       <c r="R8" t="n">
-        <v>28083</v>
+        <v>33283</v>
       </c>
       <c r="S8" t="n">
-        <v>236698</v>
+        <v>158860</v>
       </c>
       <c r="T8" t="n">
-        <v>163429</v>
+        <v>106225</v>
       </c>
       <c r="U8" t="n">
-        <v>38792</v>
+        <v>34405</v>
       </c>
       <c r="V8" t="n">
-        <v>78707</v>
+        <v>97941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7174</v>
+        <v>5379</v>
       </c>
       <c r="C9" t="n">
-        <v>4183815</v>
+        <v>3106189</v>
       </c>
       <c r="D9" t="n">
-        <v>84375</v>
+        <v>88091</v>
       </c>
       <c r="E9" t="n">
-        <v>90037</v>
+        <v>86493</v>
       </c>
       <c r="F9" t="n">
-        <v>464682</v>
+        <v>361120</v>
       </c>
       <c r="G9" t="n">
-        <v>130652</v>
+        <v>67901</v>
       </c>
       <c r="H9" t="n">
-        <v>30111</v>
+        <v>16600</v>
       </c>
       <c r="I9" t="n">
-        <v>294449</v>
+        <v>204054</v>
       </c>
       <c r="J9" t="n">
-        <v>16079</v>
+        <v>10858</v>
       </c>
       <c r="K9" t="n">
-        <v>4119105</v>
+        <v>2578537</v>
       </c>
       <c r="L9" t="n">
-        <v>540306</v>
+        <v>679500</v>
       </c>
       <c r="M9" t="n">
-        <v>13307501</v>
+        <v>10436059</v>
       </c>
       <c r="N9" t="n">
-        <v>12573</v>
+        <v>13334</v>
       </c>
       <c r="O9" t="n">
-        <v>2161720</v>
+        <v>2151885</v>
       </c>
       <c r="P9" t="n">
-        <v>317701</v>
+        <v>343876</v>
       </c>
       <c r="Q9" t="n">
-        <v>393829</v>
+        <v>265826</v>
       </c>
       <c r="R9" t="n">
-        <v>19579</v>
+        <v>65838</v>
       </c>
       <c r="S9" t="n">
-        <v>208415</v>
+        <v>141812</v>
       </c>
       <c r="T9" t="n">
-        <v>135868</v>
+        <v>112571</v>
       </c>
       <c r="U9" t="n">
-        <v>33229</v>
+        <v>41128</v>
       </c>
       <c r="V9" t="n">
-        <v>63802</v>
+        <v>95067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6377</v>
+        <v>5352</v>
       </c>
       <c r="C10" t="n">
-        <v>3503053</v>
+        <v>2823100</v>
       </c>
       <c r="D10" t="n">
-        <v>86729</v>
+        <v>104599</v>
       </c>
       <c r="E10" t="n">
-        <v>80768</v>
+        <v>107813</v>
       </c>
       <c r="F10" t="n">
-        <v>424549</v>
+        <v>341448</v>
       </c>
       <c r="G10" t="n">
-        <v>110179</v>
+        <v>58872</v>
       </c>
       <c r="H10" t="n">
-        <v>30404</v>
+        <v>10018</v>
       </c>
       <c r="I10" t="n">
-        <v>229277</v>
+        <v>176387</v>
       </c>
       <c r="J10" t="n">
-        <v>14028</v>
+        <v>10670</v>
       </c>
       <c r="K10" t="n">
-        <v>3283733</v>
+        <v>2364273</v>
       </c>
       <c r="L10" t="n">
-        <v>658908</v>
+        <v>538521</v>
       </c>
       <c r="M10" t="n">
-        <v>11878456</v>
+        <v>9721130</v>
       </c>
       <c r="N10" t="n">
-        <v>12617</v>
+        <v>13941</v>
       </c>
       <c r="O10" t="n">
-        <v>2326509</v>
+        <v>2112070</v>
       </c>
       <c r="P10" t="n">
-        <v>398982</v>
+        <v>395335</v>
       </c>
       <c r="Q10" t="n">
-        <v>367458</v>
+        <v>268480</v>
       </c>
       <c r="R10" t="n">
-        <v>21205</v>
+        <v>47803</v>
       </c>
       <c r="S10" t="n">
-        <v>123063</v>
+        <v>123042</v>
       </c>
       <c r="T10" t="n">
-        <v>116292</v>
+        <v>97364</v>
       </c>
       <c r="U10" t="n">
-        <v>31361</v>
+        <v>43345</v>
       </c>
       <c r="V10" t="n">
-        <v>52964</v>
+        <v>78697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5978</v>
+        <v>5354</v>
       </c>
       <c r="C11" t="n">
-        <v>3476718</v>
+        <v>2637828</v>
       </c>
       <c r="D11" t="n">
-        <v>75756</v>
+        <v>115704</v>
       </c>
       <c r="E11" t="n">
-        <v>74955</v>
+        <v>128245</v>
       </c>
       <c r="F11" t="n">
-        <v>452474</v>
+        <v>299385</v>
       </c>
       <c r="G11" t="n">
-        <v>93326</v>
+        <v>52834</v>
       </c>
       <c r="H11" t="n">
-        <v>29691</v>
+        <v>7908</v>
       </c>
       <c r="I11" t="n">
-        <v>216716</v>
+        <v>156090</v>
       </c>
       <c r="J11" t="n">
-        <v>13085</v>
+        <v>12592</v>
       </c>
       <c r="K11" t="n">
-        <v>3001840</v>
+        <v>2252895</v>
       </c>
       <c r="L11" t="n">
-        <v>798695</v>
+        <v>451088</v>
       </c>
       <c r="M11" t="n">
-        <v>11795124</v>
+        <v>9624881</v>
       </c>
       <c r="N11" t="n">
-        <v>11561</v>
+        <v>15425</v>
       </c>
       <c r="O11" t="n">
-        <v>2343731</v>
+        <v>2297074</v>
       </c>
       <c r="P11" t="n">
-        <v>510505</v>
+        <v>548092</v>
       </c>
       <c r="Q11" t="n">
-        <v>323386</v>
+        <v>265445</v>
       </c>
       <c r="R11" t="n">
-        <v>24766</v>
+        <v>45776</v>
       </c>
       <c r="S11" t="n">
-        <v>124600</v>
+        <v>145996</v>
       </c>
       <c r="T11" t="n">
-        <v>102894</v>
+        <v>89146</v>
       </c>
       <c r="U11" t="n">
-        <v>32779</v>
+        <v>45193</v>
       </c>
       <c r="V11" t="n">
-        <v>81668</v>
+        <v>52811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4124</v>
+        <v>3104</v>
       </c>
       <c r="C12" t="n">
-        <v>3455632</v>
+        <v>2197509</v>
       </c>
       <c r="D12" t="n">
-        <v>82877</v>
+        <v>103148</v>
       </c>
       <c r="E12" t="n">
-        <v>77451</v>
+        <v>103192</v>
       </c>
       <c r="F12" t="n">
-        <v>481862</v>
+        <v>196380</v>
       </c>
       <c r="G12" t="n">
-        <v>78316</v>
+        <v>45151</v>
       </c>
       <c r="H12" t="n">
-        <v>23508</v>
+        <v>6221</v>
       </c>
       <c r="I12" t="n">
-        <v>220193</v>
+        <v>132073</v>
       </c>
       <c r="J12" t="n">
-        <v>11707</v>
+        <v>53859</v>
       </c>
       <c r="K12" t="n">
-        <v>2803995</v>
+        <v>2063483</v>
       </c>
       <c r="L12" t="n">
-        <v>773313</v>
+        <v>324301</v>
       </c>
       <c r="M12" t="n">
-        <v>11517195</v>
+        <v>8628053</v>
       </c>
       <c r="N12" t="n">
-        <v>11856</v>
+        <v>13473</v>
       </c>
       <c r="O12" t="n">
-        <v>2285424</v>
+        <v>2119503</v>
       </c>
       <c r="P12" t="n">
-        <v>470129</v>
+        <v>716115</v>
       </c>
       <c r="Q12" t="n">
-        <v>306094</v>
+        <v>249655</v>
       </c>
       <c r="R12" t="n">
-        <v>33283</v>
+        <v>38289</v>
       </c>
       <c r="S12" t="n">
-        <v>158860</v>
+        <v>137772</v>
       </c>
       <c r="T12" t="n">
-        <v>106225</v>
+        <v>60850</v>
       </c>
       <c r="U12" t="n">
-        <v>34405</v>
+        <v>39179</v>
       </c>
       <c r="V12" t="n">
-        <v>97941</v>
+        <v>24796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5379</v>
+        <v>2039</v>
       </c>
       <c r="C13" t="n">
-        <v>3106189</v>
+        <v>2276942</v>
       </c>
       <c r="D13" t="n">
-        <v>88091</v>
+        <v>135171</v>
       </c>
       <c r="E13" t="n">
-        <v>86493</v>
+        <v>111555</v>
       </c>
       <c r="F13" t="n">
-        <v>361120</v>
+        <v>165149</v>
       </c>
       <c r="G13" t="n">
-        <v>67901</v>
+        <v>47843</v>
       </c>
       <c r="H13" t="n">
-        <v>16600</v>
+        <v>5716</v>
       </c>
       <c r="I13" t="n">
-        <v>204054</v>
+        <v>109959</v>
       </c>
       <c r="J13" t="n">
-        <v>10858</v>
+        <v>60934</v>
       </c>
       <c r="K13" t="n">
-        <v>2578537</v>
+        <v>2316131</v>
       </c>
       <c r="L13" t="n">
-        <v>679500</v>
+        <v>241500</v>
       </c>
       <c r="M13" t="n">
-        <v>10436059</v>
+        <v>9060768</v>
       </c>
       <c r="N13" t="n">
-        <v>13334</v>
+        <v>16653</v>
       </c>
       <c r="O13" t="n">
-        <v>2151885</v>
+        <v>2337264</v>
       </c>
       <c r="P13" t="n">
-        <v>343876</v>
+        <v>657489</v>
       </c>
       <c r="Q13" t="n">
-        <v>265826</v>
+        <v>275765</v>
       </c>
       <c r="R13" t="n">
-        <v>65838</v>
+        <v>46364</v>
       </c>
       <c r="S13" t="n">
-        <v>141812</v>
+        <v>128215</v>
       </c>
       <c r="T13" t="n">
-        <v>112571</v>
+        <v>68205</v>
       </c>
       <c r="U13" t="n">
-        <v>41128</v>
+        <v>34780</v>
       </c>
       <c r="V13" t="n">
-        <v>95067</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5352</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2823100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>104599</v>
-      </c>
-      <c r="E14" t="n">
-        <v>107813</v>
-      </c>
-      <c r="F14" t="n">
-        <v>341448</v>
-      </c>
-      <c r="G14" t="n">
-        <v>58872</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10018</v>
-      </c>
-      <c r="I14" t="n">
-        <v>176387</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10670</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2364273</v>
-      </c>
-      <c r="L14" t="n">
-        <v>538521</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9721130</v>
-      </c>
-      <c r="N14" t="n">
-        <v>13941</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2112070</v>
-      </c>
-      <c r="P14" t="n">
-        <v>395335</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>268480</v>
-      </c>
-      <c r="R14" t="n">
-        <v>47803</v>
-      </c>
-      <c r="S14" t="n">
-        <v>123042</v>
-      </c>
-      <c r="T14" t="n">
-        <v>97364</v>
-      </c>
-      <c r="U14" t="n">
-        <v>43345</v>
-      </c>
-      <c r="V14" t="n">
-        <v>78697</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5354</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2637828</v>
-      </c>
-      <c r="D15" t="n">
-        <v>115704</v>
-      </c>
-      <c r="E15" t="n">
-        <v>128245</v>
-      </c>
-      <c r="F15" t="n">
-        <v>299385</v>
-      </c>
-      <c r="G15" t="n">
-        <v>52834</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7908</v>
-      </c>
-      <c r="I15" t="n">
-        <v>156090</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12592</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2252895</v>
-      </c>
-      <c r="L15" t="n">
-        <v>451088</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9624881</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15425</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2297074</v>
-      </c>
-      <c r="P15" t="n">
-        <v>548092</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>265445</v>
-      </c>
-      <c r="R15" t="n">
-        <v>45776</v>
-      </c>
-      <c r="S15" t="n">
-        <v>145996</v>
-      </c>
-      <c r="T15" t="n">
-        <v>89146</v>
-      </c>
-      <c r="U15" t="n">
-        <v>45193</v>
-      </c>
-      <c r="V15" t="n">
-        <v>52811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3104</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2197509</v>
-      </c>
-      <c r="D16" t="n">
-        <v>103148</v>
-      </c>
-      <c r="E16" t="n">
-        <v>103192</v>
-      </c>
-      <c r="F16" t="n">
-        <v>196380</v>
-      </c>
-      <c r="G16" t="n">
-        <v>45151</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6221</v>
-      </c>
-      <c r="I16" t="n">
-        <v>132073</v>
-      </c>
-      <c r="J16" t="n">
-        <v>53859</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2063483</v>
-      </c>
-      <c r="L16" t="n">
-        <v>324301</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8628053</v>
-      </c>
-      <c r="N16" t="n">
-        <v>13473</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2119503</v>
-      </c>
-      <c r="P16" t="n">
-        <v>716115</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>249655</v>
-      </c>
-      <c r="R16" t="n">
-        <v>38289</v>
-      </c>
-      <c r="S16" t="n">
-        <v>137772</v>
-      </c>
-      <c r="T16" t="n">
-        <v>60850</v>
-      </c>
-      <c r="U16" t="n">
-        <v>39179</v>
-      </c>
-      <c r="V16" t="n">
-        <v>24796</v>
+        <v>23094</v>
       </c>
     </row>
   </sheetData>
